--- a/docs/timesheet.xlsx
+++ b/docs/timesheet.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
   <si>
     <t>Datum</t>
   </si>
@@ -51,6 +51,12 @@
   </si>
   <si>
     <t>Analyse &amp; Database diagram</t>
+  </si>
+  <si>
+    <t>Schets + stijl bepalen</t>
+  </si>
+  <si>
+    <t>Visual Desings</t>
   </si>
 </sst>
 </file>
@@ -61,7 +67,7 @@
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     <numFmt numFmtId="165" formatCode="h\.mm&quot; u.&quot;;@"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -114,6 +120,11 @@
       <name val="Source Sans Pro"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Source Sans Pro"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -155,7 +166,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -174,6 +185,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -573,7 +585,7 @@
   <dimension ref="A1:E55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -621,7 +633,7 @@
         <v>42793</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C4" s="11">
         <v>8.3333333333333329E-2</v>
@@ -629,7 +641,7 @@
     </row>
     <row r="5" spans="1:3" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A5" s="4">
-        <v>42795</v>
+        <v>42794</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>6</v>
@@ -640,24 +652,36 @@
     </row>
     <row r="6" spans="1:3" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A6" s="4">
-        <v>42796</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>8</v>
+        <v>42795</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>10</v>
       </c>
       <c r="C6" s="11">
         <v>0.125</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A7" s="4"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="11"/>
+      <c r="A7" s="4">
+        <v>42796</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="11">
+        <v>4.1666666666666664E-2</v>
+      </c>
     </row>
     <row r="8" spans="1:3" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A8" s="4"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="11"/>
+      <c r="A8" s="4">
+        <v>42797</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="11">
+        <v>8.3333333333333301E-2</v>
+      </c>
     </row>
     <row r="9" spans="1:3" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A9" s="4"/>
@@ -670,14 +694,26 @@
       <c r="C10" s="11"/>
     </row>
     <row r="11" spans="1:3" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A11" s="4"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="11"/>
+      <c r="A11" s="4">
+        <v>42795</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="11">
+        <v>8.3333333333333329E-2</v>
+      </c>
     </row>
     <row r="12" spans="1:3" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A12" s="4"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="11"/>
+      <c r="A12" s="4">
+        <v>42796</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="11">
+        <v>0.125</v>
+      </c>
     </row>
     <row r="13" spans="1:3" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A13" s="4"/>
